--- a/Team-Data/2011-12/4-12-2011-12.xlsx
+++ b/Team-Data/2011-12/4-12-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -783,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>2.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -959,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>28</v>
@@ -986,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="n">
-        <v>0.123</v>
+        <v>0.125</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="J4" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K4" t="n">
         <v>0.418</v>
@@ -1057,34 +1124,34 @@
         <v>4.1</v>
       </c>
       <c r="M4" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.304</v>
+        <v>0.301</v>
       </c>
       <c r="O4" t="n">
         <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
         <v>0.752</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U4" t="n">
         <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
@@ -1093,19 +1160,19 @@
         <v>5.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
         <v>88.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.3</v>
+        <v>-13.1</v>
       </c>
       <c r="AD4" t="n">
         <v>27</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1150,16 +1217,16 @@
         <v>18</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
@@ -1168,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>24</v>
@@ -1177,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.763</v>
+        <v>0.759</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I5" t="n">
         <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
         <v>15.5</v>
@@ -1251,10 +1318,10 @@
         <v>21.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="R5" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
         <v>32.3</v>
@@ -1263,19 +1330,19 @@
         <v>46.3</v>
       </c>
       <c r="U5" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
         <v>17.2</v>
@@ -1290,7 +1357,7 @@
         <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>10</v>
@@ -1323,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-6</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1487,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1508,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L7" t="n">
         <v>7.4</v>
       </c>
       <c r="M7" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O7" t="n">
         <v>15.3</v>
@@ -1618,19 +1685,19 @@
         <v>0.756</v>
       </c>
       <c r="R7" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S7" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T7" t="n">
         <v>42.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
         <v>8.6</v>
@@ -1642,19 +1709,19 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1666,7 +1733,7 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1675,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1699,16 +1766,16 @@
         <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>12</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1723,7 +1790,7 @@
         <v>7</v>
       </c>
       <c r="BA7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -1836,25 +1903,25 @@
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1866,7 +1933,7 @@
         <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
         <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>0.379</v>
+        <v>0.368</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="J9" t="n">
         <v>78.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,7 +2037,7 @@
         <v>13.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
         <v>16.7</v>
@@ -1979,7 +2046,7 @@
         <v>22.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
@@ -1988,52 +2055,52 @@
         <v>28</v>
       </c>
       <c r="T9" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U9" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA9" t="n">
         <v>19.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.3</v>
+        <v>-5.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
         <v>25</v>
@@ -2069,7 +2136,7 @@
         <v>27</v>
       </c>
       <c r="AU9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2087,13 +2154,13 @@
         <v>15</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.379</v>
+        <v>0.386</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J10" t="n">
         <v>82.2</v>
@@ -2149,19 +2216,19 @@
         <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N10" t="n">
         <v>0.389</v>
       </c>
       <c r="O10" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P10" t="n">
         <v>19.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R10" t="n">
         <v>9.699999999999999</v>
@@ -2170,25 +2237,25 @@
         <v>29.3</v>
       </c>
       <c r="T10" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>8.1</v>
       </c>
       <c r="X10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y10" t="n">
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA10" t="n">
         <v>16.8</v>
@@ -2197,10 +2264,10 @@
         <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2248,7 +2315,7 @@
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>0.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2403,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2415,7 +2482,7 @@
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
         <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.61</v>
+        <v>0.603</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,7 +2753,7 @@
         <v>36.9</v>
       </c>
       <c r="J13" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K13" t="n">
         <v>0.452</v>
@@ -2695,19 +2762,19 @@
         <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P13" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="R13" t="n">
         <v>12.2</v>
@@ -2716,13 +2783,13 @@
         <v>29.6</v>
       </c>
       <c r="T13" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U13" t="n">
         <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W13" t="n">
         <v>8.300000000000001</v>
@@ -2737,19 +2804,19 @@
         <v>21.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB13" t="n">
         <v>97.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
@@ -2758,16 +2825,16 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2779,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
@@ -2797,10 +2864,10 @@
         <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW13" t="n">
         <v>7</v>
@@ -2809,7 +2876,7 @@
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ13" t="n">
         <v>24</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2988,7 +3055,7 @@
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>5</v>
@@ -2997,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="BA14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB14" t="n">
         <v>17</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -3032,43 +3099,43 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="n">
         <v>34</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.586</v>
+        <v>0.596</v>
       </c>
       <c r="H15" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I15" t="n">
         <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L15" t="n">
         <v>4.1</v>
       </c>
       <c r="M15" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.326</v>
+        <v>0.329</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q15" t="n">
         <v>0.756</v>
@@ -3092,13 +3159,13 @@
         <v>9.699999999999999</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
         <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA15" t="n">
         <v>19.5</v>
@@ -3107,16 +3174,16 @@
         <v>95.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="n">
         <v>8</v>
@@ -3125,7 +3192,7 @@
         <v>14</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
@@ -3140,7 +3207,7 @@
         <v>28</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3161,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>15</v>
@@ -3179,13 +3246,13 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.702</v>
+        <v>0.714</v>
       </c>
       <c r="H16" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L16" t="n">
         <v>5.7</v>
@@ -3247,13 +3314,13 @@
         <v>0.369</v>
       </c>
       <c r="O16" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
@@ -3268,46 +3335,46 @@
         <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
         <v>9.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AD16" t="n">
         <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3325,13 +3392,13 @@
         <v>5</v>
       </c>
       <c r="AO16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP16" t="n">
         <v>5</v>
       </c>
-      <c r="AP16" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3343,16 +3410,16 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.417</v>
+        <v>0.424</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,7 +3663,7 @@
         <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
         <v>0.435</v>
@@ -3608,16 +3675,16 @@
         <v>21.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P18" t="n">
         <v>25.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R18" t="n">
         <v>12.4</v>
@@ -3635,25 +3702,25 @@
         <v>15.3</v>
       </c>
       <c r="W18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA18" t="n">
         <v>21.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3680,7 +3747,7 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -3689,13 +3756,13 @@
         <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP18" t="n">
         <v>6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-5.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>25</v>
@@ -3907,13 +3974,13 @@
         <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4089,7 +4156,7 @@
         <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4214,7 +4281,7 @@
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4226,7 +4293,7 @@
         <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
@@ -4253,7 +4320,7 @@
         <v>14</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4265,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4435,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>1.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4635,13 +4702,13 @@
         <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4760,7 +4827,7 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4945,7 +5012,7 @@
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>12</v>
@@ -4963,7 +5030,7 @@
         <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4999,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5175,7 +5242,7 @@
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
         <v>11</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5348,7 +5415,7 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
@@ -5366,7 +5433,7 @@
         <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.719</v>
+        <v>0.714</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5416,43 +5483,43 @@
         <v>38.9</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.737</v>
+        <v>0.735</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T28" t="n">
         <v>42.5</v>
       </c>
       <c r="U28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V28" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.3</v>
@@ -5461,19 +5528,19 @@
         <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z28" t="n">
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD28" t="n">
         <v>27</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5509,16 +5576,16 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
@@ -5530,7 +5597,7 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>20</v>
@@ -5539,13 +5606,13 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
@@ -5670,16 +5737,16 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5876,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
@@ -6055,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6091,7 +6158,7 @@
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-12-2011-12</t>
+          <t>2012-04-12</t>
         </is>
       </c>
     </row>
